--- a/biology/Botanique/Salvinia/Salvinia.xlsx
+++ b/biology/Botanique/Salvinia/Salvinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salvinia est un genre de fougères aquatiques qui fait partie de la famille des Salviniacées. On compte aujourd'hui une dizaine d'espèces dans le monde, majoritairement dans des régions tropicales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot Salviana est dédié à un professeur de grec, Antonio Maria Salvini (1653-1729).
 </t>
@@ -542,7 +556,9 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre Salvinia est caractérisé par des feuilles munies de papilles hydrofuges et l'absence de racines.
 Voir Salviniacées</t>
@@ -573,9 +589,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Phylogénie de Salvinia[2],[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Phylogénie de Salvinia,
 Les autres espèces comprennent :
 Salvinia auriculata
 Salvinia biloba
@@ -612,7 +630,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Effet Salvinia</t>
         </is>
